--- a/SAS/RegressionResults.xlsx
+++ b/SAS/RegressionResults.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calvi\Documents\GitHub\CS593-Final-Project\SAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BC1027-CD3C-42BF-B1CF-870A7990A24B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2481D6E6-B5CF-4D06-AAAD-9A8D751BE17C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="1950" windowWidth="17790" windowHeight="12315" activeTab="3" xr2:uid="{4E2DAEDD-BBA2-44E8-9EA4-9785C84B3BD6}"/>
+    <workbookView xWindow="1740" yWindow="525" windowWidth="17790" windowHeight="12315" activeTab="3" xr2:uid="{4E2DAEDD-BBA2-44E8-9EA4-9785C84B3BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="SimpleREGNone1" sheetId="1" r:id="rId1"/>
     <sheet name="SimpleREGNone2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$C$1:$C$774</definedName>
@@ -2453,7 +2454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2477,6 +2478,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF616161"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2664,7 +2671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2781,6 +2788,9 @@
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25810,9 +25820,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C774"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A757" workbookViewId="0">
-      <selection activeCell="A774" sqref="A774"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -25828,7 +25836,7 @@
       </c>
       <c r="C1" s="6"/>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -25839,7 +25847,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -25850,7 +25858,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
@@ -25861,7 +25869,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -25872,7 +25880,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -25883,7 +25891,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -25894,7 +25902,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -25905,7 +25913,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -25916,7 +25924,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -25927,7 +25935,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -25938,7 +25946,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -25949,7 +25957,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -25960,7 +25968,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
@@ -25971,7 +25979,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -25982,7 +25990,7 @@
         <v>0.34200000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -25993,7 +26001,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -26004,7 +26012,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>41</v>
       </c>
@@ -26015,7 +26023,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -26026,7 +26034,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -26037,7 +26045,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -26048,7 +26056,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -26059,7 +26067,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -26070,7 +26078,7 @@
         <v>1.7299999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -26081,7 +26089,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -26092,7 +26100,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -26103,7 +26111,7 @@
         <v>0.3654</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -26114,7 +26122,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -26125,7 +26133,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -26136,7 +26144,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -26147,7 +26155,7 @@
         <v>6.3700000000000007E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -26158,7 +26166,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -26169,7 +26177,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -26180,7 +26188,7 @@
         <v>8.6E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -26191,7 +26199,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -26202,7 +26210,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -26213,7 +26221,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -26224,7 +26232,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -26235,7 +26243,7 @@
         <v>0.58579999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -26246,7 +26254,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -26257,7 +26265,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -26268,7 +26276,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -26279,7 +26287,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -26290,7 +26298,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -26301,7 +26309,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -26312,7 +26320,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -26323,7 +26331,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -26334,7 +26342,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -26345,7 +26353,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -26356,7 +26364,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -26367,7 +26375,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -26378,7 +26386,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>75</v>
       </c>
@@ -26389,7 +26397,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>77</v>
       </c>
@@ -26400,7 +26408,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>78</v>
       </c>
@@ -26411,7 +26419,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>79</v>
       </c>
@@ -26422,7 +26430,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>80</v>
       </c>
@@ -26433,7 +26441,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>81</v>
       </c>
@@ -26444,7 +26452,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>82</v>
       </c>
@@ -26455,7 +26463,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>83</v>
       </c>
@@ -26466,7 +26474,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>84</v>
       </c>
@@ -26477,7 +26485,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>85</v>
       </c>
@@ -26488,7 +26496,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>86</v>
       </c>
@@ -26499,7 +26507,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
@@ -26510,7 +26518,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>88</v>
       </c>
@@ -26521,7 +26529,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
@@ -26532,7 +26540,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
@@ -26543,7 +26551,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>91</v>
       </c>
@@ -26554,7 +26562,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>92</v>
       </c>
@@ -26565,7 +26573,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>93</v>
       </c>
@@ -26576,7 +26584,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>94</v>
       </c>
@@ -26587,7 +26595,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>95</v>
       </c>
@@ -26598,7 +26606,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>96</v>
       </c>
@@ -26609,7 +26617,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>97</v>
       </c>
@@ -26620,7 +26628,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>98</v>
       </c>
@@ -26631,7 +26639,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>99</v>
       </c>
@@ -26642,7 +26650,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>100</v>
       </c>
@@ -26653,7 +26661,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>101</v>
       </c>
@@ -26664,7 +26672,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>102</v>
       </c>
@@ -26675,7 +26683,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>103</v>
       </c>
@@ -26686,7 +26694,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>104</v>
       </c>
@@ -26697,7 +26705,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>105</v>
       </c>
@@ -26708,7 +26716,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>106</v>
       </c>
@@ -26719,7 +26727,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>107</v>
       </c>
@@ -26730,7 +26738,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>108</v>
       </c>
@@ -26741,7 +26749,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>109</v>
       </c>
@@ -26752,7 +26760,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>110</v>
       </c>
@@ -26763,7 +26771,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>111</v>
       </c>
@@ -26774,7 +26782,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>112</v>
       </c>
@@ -26785,7 +26793,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>113</v>
       </c>
@@ -26796,7 +26804,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>114</v>
       </c>
@@ -26807,7 +26815,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>115</v>
       </c>
@@ -26818,7 +26826,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>116</v>
       </c>
@@ -26829,7 +26837,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>117</v>
       </c>
@@ -26840,7 +26848,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>118</v>
       </c>
@@ -26851,7 +26859,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>119</v>
       </c>
@@ -26862,7 +26870,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>120</v>
       </c>
@@ -26873,7 +26881,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>121</v>
       </c>
@@ -26884,7 +26892,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>122</v>
       </c>
@@ -26895,7 +26903,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>123</v>
       </c>
@@ -26906,7 +26914,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>124</v>
       </c>
@@ -26917,7 +26925,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>125</v>
       </c>
@@ -26928,7 +26936,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>126</v>
       </c>
@@ -26939,7 +26947,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>127</v>
       </c>
@@ -26950,7 +26958,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>128</v>
       </c>
@@ -26961,7 +26969,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>129</v>
       </c>
@@ -26972,7 +26980,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>130</v>
       </c>
@@ -26983,7 +26991,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>131</v>
       </c>
@@ -26994,7 +27002,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>132</v>
       </c>
@@ -27005,7 +27013,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>133</v>
       </c>
@@ -27016,7 +27024,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>134</v>
       </c>
@@ -27027,7 +27035,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>135</v>
       </c>
@@ -27038,7 +27046,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>136</v>
       </c>
@@ -27049,7 +27057,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>137</v>
       </c>
@@ -27060,7 +27068,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>138</v>
       </c>
@@ -27071,7 +27079,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>139</v>
       </c>
@@ -27082,7 +27090,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>140</v>
       </c>
@@ -27093,7 +27101,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>141</v>
       </c>
@@ -27104,7 +27112,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>142</v>
       </c>
@@ -27115,7 +27123,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>143</v>
       </c>
@@ -27126,7 +27134,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>144</v>
       </c>
@@ -27137,7 +27145,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>145</v>
       </c>
@@ -27148,7 +27156,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>146</v>
       </c>
@@ -27159,7 +27167,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>147</v>
       </c>
@@ -27170,7 +27178,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>148</v>
       </c>
@@ -27181,7 +27189,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>149</v>
       </c>
@@ -27192,7 +27200,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>150</v>
       </c>
@@ -27203,7 +27211,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>151</v>
       </c>
@@ -27214,7 +27222,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>152</v>
       </c>
@@ -27225,7 +27233,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>153</v>
       </c>
@@ -27236,7 +27244,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>154</v>
       </c>
@@ -27247,7 +27255,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>155</v>
       </c>
@@ -27258,7 +27266,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>156</v>
       </c>
@@ -27269,7 +27277,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>157</v>
       </c>
@@ -27291,7 +27299,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>159</v>
       </c>
@@ -27302,7 +27310,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>160</v>
       </c>
@@ -27313,7 +27321,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>161</v>
       </c>
@@ -27324,7 +27332,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>162</v>
       </c>
@@ -27335,7 +27343,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>163</v>
       </c>
@@ -27346,7 +27354,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>164</v>
       </c>
@@ -27357,7 +27365,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>165</v>
       </c>
@@ -27368,7 +27376,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>166</v>
       </c>
@@ -27379,7 +27387,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>167</v>
       </c>
@@ -27390,7 +27398,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>168</v>
       </c>
@@ -27401,7 +27409,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>169</v>
       </c>
@@ -27412,7 +27420,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>170</v>
       </c>
@@ -27423,7 +27431,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>171</v>
       </c>
@@ -27445,7 +27453,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>173</v>
       </c>
@@ -27456,7 +27464,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>174</v>
       </c>
@@ -27467,7 +27475,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>175</v>
       </c>
@@ -27478,7 +27486,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>176</v>
       </c>
@@ -27489,7 +27497,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>177</v>
       </c>
@@ -27500,7 +27508,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>178</v>
       </c>
@@ -27511,7 +27519,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>179</v>
       </c>
@@ -27544,7 +27552,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>182</v>
       </c>
@@ -27555,7 +27563,7 @@
         <v>0.97819999999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>183</v>
       </c>
@@ -27566,7 +27574,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>184</v>
       </c>
@@ -27577,7 +27585,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>185</v>
       </c>
@@ -27588,7 +27596,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>186</v>
       </c>
@@ -27599,7 +27607,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>187</v>
       </c>
@@ -27610,7 +27618,7 @@
         <v>0.99909999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>188</v>
       </c>
@@ -27621,7 +27629,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>189</v>
       </c>
@@ -27632,7 +27640,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>190</v>
       </c>
@@ -27643,7 +27651,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>191</v>
       </c>
@@ -27654,7 +27662,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>192</v>
       </c>
@@ -27665,7 +27673,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>193</v>
       </c>
@@ -27676,7 +27684,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>194</v>
       </c>
@@ -27687,7 +27695,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>195</v>
       </c>
@@ -27698,7 +27706,7 @@
         <v>0.19320000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>196</v>
       </c>
@@ -27709,7 +27717,7 @@
         <v>0.5776</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>197</v>
       </c>
@@ -27720,7 +27728,7 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>198</v>
       </c>
@@ -27731,7 +27739,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>199</v>
       </c>
@@ -27742,7 +27750,7 @@
         <v>3.8699999999999998E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>200</v>
       </c>
@@ -27753,7 +27761,7 @@
         <v>0.55969999999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>201</v>
       </c>
@@ -27764,7 +27772,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>202</v>
       </c>
@@ -27775,7 +27783,7 @@
         <v>0.25059999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>203</v>
       </c>
@@ -27786,7 +27794,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>204</v>
       </c>
@@ -27797,7 +27805,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>205</v>
       </c>
@@ -27808,7 +27816,7 @@
         <v>0.28520000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>206</v>
       </c>
@@ -27819,7 +27827,7 @@
         <v>0.52839999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>207</v>
       </c>
@@ -27830,7 +27838,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>208</v>
       </c>
@@ -27841,7 +27849,7 @@
         <v>0.2117</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>209</v>
       </c>
@@ -27852,7 +27860,7 @@
         <v>0.15060000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>210</v>
       </c>
@@ -27863,7 +27871,7 @@
         <v>0.33379999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>211</v>
       </c>
@@ -27874,7 +27882,7 @@
         <v>0.61229999999999996</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>212</v>
       </c>
@@ -27885,7 +27893,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>213</v>
       </c>
@@ -27896,7 +27904,7 @@
         <v>1.8800000000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>214</v>
       </c>
@@ -27907,7 +27915,7 @@
         <v>0.79579999999999995</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>215</v>
       </c>
@@ -27918,7 +27926,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>216</v>
       </c>
@@ -27929,7 +27937,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>217</v>
       </c>
@@ -27940,7 +27948,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>218</v>
       </c>
@@ -27951,7 +27959,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>219</v>
       </c>
@@ -27962,7 +27970,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>220</v>
       </c>
@@ -27973,7 +27981,7 @@
         <v>0.63749999999999996</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>221</v>
       </c>
@@ -27984,7 +27992,7 @@
         <v>0.34150000000000003</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>222</v>
       </c>
@@ -27995,7 +28003,7 @@
         <v>9.5100000000000004E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>223</v>
       </c>
@@ -28006,7 +28014,7 @@
         <v>0.22509999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>224</v>
       </c>
@@ -28017,7 +28025,7 @@
         <v>0.86180000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>225</v>
       </c>
@@ -28028,7 +28036,7 @@
         <v>7.17E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>226</v>
       </c>
@@ -28039,7 +28047,7 @@
         <v>0.28610000000000002</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>227</v>
       </c>
@@ -28050,7 +28058,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>228</v>
       </c>
@@ -28061,7 +28069,7 @@
         <v>8.4699999999999998E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>229</v>
       </c>
@@ -28072,7 +28080,7 @@
         <v>0.64449999999999996</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>230</v>
       </c>
@@ -28083,7 +28091,7 @@
         <v>0.15590000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>231</v>
       </c>
@@ -28094,7 +28102,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>232</v>
       </c>
@@ -28105,7 +28113,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>233</v>
       </c>
@@ -28116,7 +28124,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>234</v>
       </c>
@@ -28127,7 +28135,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>235</v>
       </c>
@@ -28138,7 +28146,7 @@
         <v>0.1057</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>236</v>
       </c>
@@ -28149,7 +28157,7 @@
         <v>0.81920000000000004</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>237</v>
       </c>
@@ -28160,7 +28168,7 @@
         <v>1.55E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>238</v>
       </c>
@@ -28171,7 +28179,7 @@
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>239</v>
       </c>
@@ -28182,7 +28190,7 @@
         <v>0.1168</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>240</v>
       </c>
@@ -28193,7 +28201,7 @@
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>241</v>
       </c>
@@ -28204,7 +28212,7 @@
         <v>4.5699999999999998E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>242</v>
       </c>
@@ -28215,7 +28223,7 @@
         <v>3.3E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>243</v>
       </c>
@@ -28226,7 +28234,7 @@
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>244</v>
       </c>
@@ -28237,7 +28245,7 @@
         <v>4.4699999999999997E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>245</v>
       </c>
@@ -28248,7 +28256,7 @@
         <v>0.91210000000000002</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>246</v>
       </c>
@@ -28259,7 +28267,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>247</v>
       </c>
@@ -28270,7 +28278,7 @@
         <v>0.25540000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>248</v>
       </c>
@@ -28281,7 +28289,7 @@
         <v>0.44990000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>249</v>
       </c>
@@ -28292,7 +28300,7 @@
         <v>0.29920000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>250</v>
       </c>
@@ -28303,7 +28311,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>251</v>
       </c>
@@ -28314,7 +28322,7 @@
         <v>0.88239999999999996</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>252</v>
       </c>
@@ -28325,7 +28333,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>253</v>
       </c>
@@ -28336,7 +28344,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>254</v>
       </c>
@@ -28347,7 +28355,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>255</v>
       </c>
@@ -28358,7 +28366,7 @@
         <v>0.20269999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>256</v>
       </c>
@@ -28369,7 +28377,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>257</v>
       </c>
@@ -28380,7 +28388,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>258</v>
       </c>
@@ -28391,7 +28399,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>259</v>
       </c>
@@ -28402,7 +28410,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>260</v>
       </c>
@@ -28413,7 +28421,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>261</v>
       </c>
@@ -28424,7 +28432,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>262</v>
       </c>
@@ -28435,7 +28443,7 @@
         <v>1.6899999999999998E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>263</v>
       </c>
@@ -28446,7 +28454,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>264</v>
       </c>
@@ -28457,7 +28465,7 @@
         <v>0.30120000000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>265</v>
       </c>
@@ -28468,7 +28476,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>266</v>
       </c>
@@ -28479,7 +28487,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>267</v>
       </c>
@@ -28490,7 +28498,7 @@
         <v>0.93149999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>268</v>
       </c>
@@ -28501,7 +28509,7 @@
         <v>0.4662</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>269</v>
       </c>
@@ -28512,7 +28520,7 @@
         <v>0.26950000000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>270</v>
       </c>
@@ -28523,7 +28531,7 @@
         <v>0.72889999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>271</v>
       </c>
@@ -28534,7 +28542,7 @@
         <v>0.77059999999999995</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>272</v>
       </c>
@@ -28545,7 +28553,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>273</v>
       </c>
@@ -28556,7 +28564,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>274</v>
       </c>
@@ -28567,7 +28575,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>275</v>
       </c>
@@ -28578,7 +28586,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>276</v>
       </c>
@@ -28589,7 +28597,7 @@
         <v>0.88019999999999998</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>277</v>
       </c>
@@ -28600,7 +28608,7 @@
         <v>0.89929999999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>278</v>
       </c>
@@ -28611,7 +28619,7 @@
         <v>0.57950000000000002</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>279</v>
       </c>
@@ -28622,7 +28630,7 @@
         <v>0.82650000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>280</v>
       </c>
@@ -28633,7 +28641,7 @@
         <v>0.47939999999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>281</v>
       </c>
@@ -28644,7 +28652,7 @@
         <v>0.96930000000000005</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>282</v>
       </c>
@@ -28655,7 +28663,7 @@
         <v>9.6299999999999997E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>283</v>
       </c>
@@ -28666,7 +28674,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>284</v>
       </c>
@@ -28677,7 +28685,7 @@
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>285</v>
       </c>
@@ -28688,7 +28696,7 @@
         <v>0.97819999999999996</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>286</v>
       </c>
@@ -28699,7 +28707,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>287</v>
       </c>
@@ -28710,7 +28718,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>288</v>
       </c>
@@ -28721,7 +28729,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>289</v>
       </c>
@@ -28732,7 +28740,7 @@
         <v>0.83009999999999995</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>290</v>
       </c>
@@ -28743,7 +28751,7 @@
         <v>0.63270000000000004</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>291</v>
       </c>
@@ -28754,7 +28762,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>292</v>
       </c>
@@ -28765,7 +28773,7 @@
         <v>0.87370000000000003</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>293</v>
       </c>
@@ -28776,7 +28784,7 @@
         <v>0.62929999999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>294</v>
       </c>
@@ -28787,7 +28795,7 @@
         <v>0.89070000000000005</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>295</v>
       </c>
@@ -28798,7 +28806,7 @@
         <v>0.8014</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>296</v>
       </c>
@@ -28809,7 +28817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>297</v>
       </c>
@@ -28820,7 +28828,7 @@
         <v>0.97819999999999996</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>298</v>
       </c>
@@ -28831,7 +28839,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>299</v>
       </c>
@@ -28842,7 +28850,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>300</v>
       </c>
@@ -28853,7 +28861,7 @@
         <v>6.4799999999999996E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>301</v>
       </c>
@@ -28864,7 +28872,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>302</v>
       </c>
@@ -28875,7 +28883,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>303</v>
       </c>
@@ -28886,7 +28894,7 @@
         <v>0.56850000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>304</v>
       </c>
@@ -28897,7 +28905,7 @@
         <v>0.68059999999999998</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>305</v>
       </c>
@@ -28908,7 +28916,7 @@
         <v>0.10829999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>306</v>
       </c>
@@ -28919,7 +28927,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>307</v>
       </c>
@@ -28930,7 +28938,7 @@
         <v>0.25629999999999997</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>308</v>
       </c>
@@ -28941,7 +28949,7 @@
         <v>9.4000000000000004E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>309</v>
       </c>
@@ -28952,7 +28960,7 @@
         <v>0.75649999999999995</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>310</v>
       </c>
@@ -28963,7 +28971,7 @@
         <v>0.66990000000000005</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>311</v>
       </c>
@@ -28974,7 +28982,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>312</v>
       </c>
@@ -28985,7 +28993,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>313</v>
       </c>
@@ -28996,7 +29004,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>314</v>
       </c>
@@ -29007,7 +29015,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>315</v>
       </c>
@@ -29018,7 +29026,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>316</v>
       </c>
@@ -29029,7 +29037,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>317</v>
       </c>
@@ -29040,7 +29048,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>318</v>
       </c>
@@ -29051,7 +29059,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>319</v>
       </c>
@@ -29062,7 +29070,7 @@
         <v>0.98170000000000002</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>320</v>
       </c>
@@ -29073,7 +29081,7 @@
         <v>0.72540000000000004</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>321</v>
       </c>
@@ -29084,7 +29092,7 @@
         <v>0.32979999999999998</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>322</v>
       </c>
@@ -29095,7 +29103,7 @@
         <v>0.6885</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>323</v>
       </c>
@@ -29106,7 +29114,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>324</v>
       </c>
@@ -29117,7 +29125,7 @@
         <v>0.33879999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>325</v>
       </c>
@@ -29128,7 +29136,7 @@
         <v>0.44540000000000002</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>326</v>
       </c>
@@ -29139,7 +29147,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>327</v>
       </c>
@@ -29150,7 +29158,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>328</v>
       </c>
@@ -29161,7 +29169,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>329</v>
       </c>
@@ -29172,7 +29180,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>330</v>
       </c>
@@ -29183,7 +29191,7 @@
         <v>0.20580000000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>331</v>
       </c>
@@ -29194,7 +29202,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>332</v>
       </c>
@@ -29205,7 +29213,7 @@
         <v>0.88190000000000002</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>333</v>
       </c>
@@ -29216,7 +29224,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>334</v>
       </c>
@@ -29227,7 +29235,7 @@
         <v>6.9699999999999998E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>335</v>
       </c>
@@ -29238,7 +29246,7 @@
         <v>0.83650000000000002</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>336</v>
       </c>
@@ -29249,7 +29257,7 @@
         <v>0.35020000000000001</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>337</v>
       </c>
@@ -29260,7 +29268,7 @@
         <v>0.20069999999999999</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>338</v>
       </c>
@@ -29271,7 +29279,7 @@
         <v>0.72440000000000004</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>339</v>
       </c>
@@ -29282,7 +29290,7 @@
         <v>0.92549999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>340</v>
       </c>
@@ -29293,7 +29301,7 @@
         <v>0.94240000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>341</v>
       </c>
@@ -29304,7 +29312,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>342</v>
       </c>
@@ -29315,7 +29323,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>343</v>
       </c>
@@ -29326,7 +29334,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>344</v>
       </c>
@@ -29337,7 +29345,7 @@
         <v>0.48730000000000001</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>345</v>
       </c>
@@ -29348,7 +29356,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>346</v>
       </c>
@@ -29359,7 +29367,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>347</v>
       </c>
@@ -29370,7 +29378,7 @@
         <v>0.6089</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>348</v>
       </c>
@@ -29381,7 +29389,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>349</v>
       </c>
@@ -29392,7 +29400,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>350</v>
       </c>
@@ -29403,7 +29411,7 @@
         <v>0.48309999999999997</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>351</v>
       </c>
@@ -29414,7 +29422,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>352</v>
       </c>
@@ -29425,7 +29433,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>353</v>
       </c>
@@ -29436,7 +29444,7 @@
         <v>0.1149</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>354</v>
       </c>
@@ -29447,7 +29455,7 @@
         <v>0.65669999999999995</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>355</v>
       </c>
@@ -29458,7 +29466,7 @@
         <v>0.32569999999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>356</v>
       </c>
@@ -29469,7 +29477,7 @@
         <v>0.34039999999999998</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>357</v>
       </c>
@@ -29480,7 +29488,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>358</v>
       </c>
@@ -29491,7 +29499,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>359</v>
       </c>
@@ -29502,7 +29510,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>360</v>
       </c>
@@ -29513,7 +29521,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>361</v>
       </c>
@@ -29524,7 +29532,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>362</v>
       </c>
@@ -29535,7 +29543,7 @@
         <v>0.64910000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>363</v>
       </c>
@@ -29546,7 +29554,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>364</v>
       </c>
@@ -29557,7 +29565,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>365</v>
       </c>
@@ -29568,7 +29576,7 @@
         <v>0.60340000000000005</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>366</v>
       </c>
@@ -29579,7 +29587,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>367</v>
       </c>
@@ -29590,7 +29598,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>368</v>
       </c>
@@ -29601,7 +29609,7 @@
         <v>0.92769999999999997</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>369</v>
       </c>
@@ -29612,7 +29620,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>370</v>
       </c>
@@ -29623,7 +29631,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>371</v>
       </c>
@@ -29634,7 +29642,7 @@
         <v>0.15509999999999999</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>372</v>
       </c>
@@ -29645,7 +29653,7 @@
         <v>1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>373</v>
       </c>
@@ -29656,7 +29664,7 @@
         <v>0.50770000000000004</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>374</v>
       </c>
@@ -29667,7 +29675,7 @@
         <v>0.91569999999999996</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>375</v>
       </c>
@@ -29678,7 +29686,7 @@
         <v>0.93659999999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>376</v>
       </c>
@@ -29689,7 +29697,7 @@
         <v>0.91610000000000003</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>377</v>
       </c>
@@ -29700,7 +29708,7 @@
         <v>0.11269999999999999</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>378</v>
       </c>
@@ -29711,7 +29719,7 @@
         <v>4.3900000000000002E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>379</v>
       </c>
@@ -29722,7 +29730,7 @@
         <v>0.26340000000000002</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>380</v>
       </c>
@@ -29733,7 +29741,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>381</v>
       </c>
@@ -29744,7 +29752,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>382</v>
       </c>
@@ -29755,7 +29763,7 @@
         <v>0.27729999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>383</v>
       </c>
@@ -29766,7 +29774,7 @@
         <v>0.75619999999999998</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>384</v>
       </c>
@@ -29777,7 +29785,7 @@
         <v>1.77E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>385</v>
       </c>
@@ -29788,7 +29796,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>386</v>
       </c>
@@ -29799,7 +29807,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>387</v>
       </c>
@@ -29810,7 +29818,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>388</v>
       </c>
@@ -29821,7 +29829,7 @@
         <v>0.51380000000000003</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>389</v>
       </c>
@@ -29832,7 +29840,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>390</v>
       </c>
@@ -29843,7 +29851,7 @@
         <v>0.58330000000000004</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>391</v>
       </c>
@@ -29854,7 +29862,7 @@
         <v>0.57730000000000004</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>392</v>
       </c>
@@ -29865,7 +29873,7 @@
         <v>8.3400000000000002E-2</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>393</v>
       </c>
@@ -29876,7 +29884,7 @@
         <v>0.54459999999999997</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>394</v>
       </c>
@@ -29887,7 +29895,7 @@
         <v>0.51739999999999997</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>395</v>
       </c>
@@ -29898,7 +29906,7 @@
         <v>0.44740000000000002</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>396</v>
       </c>
@@ -29909,7 +29917,7 @@
         <v>0.41570000000000001</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>397</v>
       </c>
@@ -29920,7 +29928,7 @@
         <v>0.74909999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>398</v>
       </c>
@@ -29931,7 +29939,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>399</v>
       </c>
@@ -29942,7 +29950,7 @@
         <v>0.1237</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>400</v>
       </c>
@@ -29953,7 +29961,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>401</v>
       </c>
@@ -29964,7 +29972,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>402</v>
       </c>
@@ -29975,7 +29983,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>403</v>
       </c>
@@ -29986,7 +29994,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>404</v>
       </c>
@@ -29997,7 +30005,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>405</v>
       </c>
@@ -30008,7 +30016,7 @@
         <v>0.67249999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>406</v>
       </c>
@@ -30019,7 +30027,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>407</v>
       </c>
@@ -30030,7 +30038,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>408</v>
       </c>
@@ -30041,7 +30049,7 @@
         <v>2.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>409</v>
       </c>
@@ -30052,7 +30060,7 @@
         <v>0.45760000000000001</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>410</v>
       </c>
@@ -30063,7 +30071,7 @@
         <v>0.33129999999999998</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>411</v>
       </c>
@@ -30074,7 +30082,7 @@
         <v>0.68689999999999996</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>412</v>
       </c>
@@ -30085,7 +30093,7 @@
         <v>0.96440000000000003</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>413</v>
       </c>
@@ -30096,7 +30104,7 @@
         <v>0.99739999999999995</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>414</v>
       </c>
@@ -30107,7 +30115,7 @@
         <v>0.8417</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>415</v>
       </c>
@@ -30118,7 +30126,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>416</v>
       </c>
@@ -30129,7 +30137,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>417</v>
       </c>
@@ -30140,7 +30148,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>418</v>
       </c>
@@ -30151,7 +30159,7 @@
         <v>0.48470000000000002</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>419</v>
       </c>
@@ -30162,7 +30170,7 @@
         <v>0.17560000000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>420</v>
       </c>
@@ -30173,7 +30181,7 @@
         <v>0.87960000000000005</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>421</v>
       </c>
@@ -30184,7 +30192,7 @@
         <v>0.77039999999999997</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>422</v>
       </c>
@@ -30195,7 +30203,7 @@
         <v>0.44679999999999997</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>423</v>
       </c>
@@ -30206,7 +30214,7 @@
         <v>0.73850000000000005</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>424</v>
       </c>
@@ -30217,7 +30225,7 @@
         <v>0.57140000000000002</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>425</v>
       </c>
@@ -30228,7 +30236,7 @@
         <v>0.38619999999999999</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>426</v>
       </c>
@@ -30239,7 +30247,7 @@
         <v>0.67969999999999997</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>427</v>
       </c>
@@ -30250,7 +30258,7 @@
         <v>0.81630000000000003</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>428</v>
       </c>
@@ -30261,7 +30269,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>429</v>
       </c>
@@ -30272,7 +30280,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>430</v>
       </c>
@@ -30283,7 +30291,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>431</v>
       </c>
@@ -30294,7 +30302,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>432</v>
       </c>
@@ -30305,7 +30313,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>433</v>
       </c>
@@ -30316,7 +30324,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>434</v>
       </c>
@@ -30327,7 +30335,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>435</v>
       </c>
@@ -30338,7 +30346,7 @@
         <v>2.63E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>436</v>
       </c>
@@ -30349,7 +30357,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>437</v>
       </c>
@@ -30360,7 +30368,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>438</v>
       </c>
@@ -30371,7 +30379,7 @@
         <v>0.11849999999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>439</v>
       </c>
@@ -30382,7 +30390,7 @@
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>440</v>
       </c>
@@ -30393,7 +30401,7 @@
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>441</v>
       </c>
@@ -30404,7 +30412,7 @@
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>442</v>
       </c>
@@ -30415,7 +30423,7 @@
         <v>0.9012</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>443</v>
       </c>
@@ -30426,7 +30434,7 @@
         <v>0.73829999999999996</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>444</v>
       </c>
@@ -30437,7 +30445,7 @@
         <v>0.47720000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>445</v>
       </c>
@@ -30448,7 +30456,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>446</v>
       </c>
@@ -30459,7 +30467,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>447</v>
       </c>
@@ -30470,7 +30478,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>448</v>
       </c>
@@ -30481,7 +30489,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>449</v>
       </c>
@@ -30492,7 +30500,7 @@
         <v>0.58289999999999997</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>450</v>
       </c>
@@ -30503,7 +30511,7 @@
         <v>0.56759999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>451</v>
       </c>
@@ -30514,7 +30522,7 @@
         <v>0.1065</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>452</v>
       </c>
@@ -30525,7 +30533,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>453</v>
       </c>
@@ -30536,7 +30544,7 @@
         <v>0.40629999999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>454</v>
       </c>
@@ -30547,7 +30555,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>455</v>
       </c>
@@ -30558,7 +30566,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>456</v>
       </c>
@@ -30569,7 +30577,7 @@
         <v>0.1721</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>457</v>
       </c>
@@ -30580,7 +30588,7 @@
         <v>0.75729999999999997</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
         <v>458</v>
       </c>
@@ -30591,7 +30599,7 @@
         <v>0.19789999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>459</v>
       </c>
@@ -30602,7 +30610,7 @@
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>460</v>
       </c>
@@ -30613,7 +30621,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>461</v>
       </c>
@@ -30624,7 +30632,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>462</v>
       </c>
@@ -30635,7 +30643,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>463</v>
       </c>
@@ -30646,7 +30654,7 @@
         <v>0.27339999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>464</v>
       </c>
@@ -30657,7 +30665,7 @@
         <v>6.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>465</v>
       </c>
@@ -30668,7 +30676,7 @@
         <v>0.74480000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>466</v>
       </c>
@@ -30679,7 +30687,7 @@
         <v>0.67589999999999995</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>467</v>
       </c>
@@ -30690,7 +30698,7 @@
         <v>0.12759999999999999</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
         <v>468</v>
       </c>
@@ -30701,7 +30709,7 @@
         <v>0.8407</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>469</v>
       </c>
@@ -30712,7 +30720,7 @@
         <v>0.80210000000000004</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>470</v>
       </c>
@@ -30723,7 +30731,7 @@
         <v>0.56789999999999996</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>471</v>
       </c>
@@ -30734,7 +30742,7 @@
         <v>0.79469999999999996</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>472</v>
       </c>
@@ -30745,7 +30753,7 @@
         <v>0.88019999999999998</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>473</v>
       </c>
@@ -30756,7 +30764,7 @@
         <v>0.1832</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>474</v>
       </c>
@@ -30767,7 +30775,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>475</v>
       </c>
@@ -30778,7 +30786,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>476</v>
       </c>
@@ -30789,7 +30797,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>477</v>
       </c>
@@ -30800,7 +30808,7 @@
         <v>0.99370000000000003</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>478</v>
       </c>
@@ -30811,7 +30819,7 @@
         <v>0.90169999999999995</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>479</v>
       </c>
@@ -30822,7 +30830,7 @@
         <v>0.92510000000000003</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
         <v>480</v>
       </c>
@@ -30833,7 +30841,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
         <v>481</v>
       </c>
@@ -30844,7 +30852,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>482</v>
       </c>
@@ -30855,7 +30863,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>483</v>
       </c>
@@ -30866,7 +30874,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>484</v>
       </c>
@@ -30877,7 +30885,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>485</v>
       </c>
@@ -30888,7 +30896,7 @@
         <v>0.78849999999999998</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
         <v>486</v>
       </c>
@@ -30899,7 +30907,7 @@
         <v>0.98919999999999997</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>487</v>
       </c>
@@ -30910,7 +30918,7 @@
         <v>0.90910000000000002</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>488</v>
       </c>
@@ -30921,7 +30929,7 @@
         <v>0.59319999999999995</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>489</v>
       </c>
@@ -30932,7 +30940,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>490</v>
       </c>
@@ -30943,7 +30951,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>491</v>
       </c>
@@ -30954,7 +30962,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>492</v>
       </c>
@@ -30965,7 +30973,7 @@
         <v>0.97770000000000001</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>493</v>
       </c>
@@ -30976,7 +30984,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>494</v>
       </c>
@@ -30987,7 +30995,7 @@
         <v>0.9617</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>495</v>
       </c>
@@ -30998,7 +31006,7 @@
         <v>0.96689999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>496</v>
       </c>
@@ -31009,7 +31017,7 @@
         <v>0.70340000000000003</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>497</v>
       </c>
@@ -31020,7 +31028,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>498</v>
       </c>
@@ -31031,7 +31039,7 @@
         <v>0.93020000000000003</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
         <v>499</v>
       </c>
@@ -31042,7 +31050,7 @@
         <v>0.99450000000000005</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>500</v>
       </c>
@@ -31053,7 +31061,7 @@
         <v>0.56289999999999996</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
         <v>501</v>
       </c>
@@ -31064,7 +31072,7 @@
         <v>0.97819999999999996</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
         <v>502</v>
       </c>
@@ -31075,7 +31083,7 @@
         <v>0.63739999999999997</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>503</v>
       </c>
@@ -31086,7 +31094,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>504</v>
       </c>
@@ -31097,7 +31105,7 @@
         <v>0.5776</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>505</v>
       </c>
@@ -31108,7 +31116,7 @@
         <v>0.72870000000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>506</v>
       </c>
@@ -31119,7 +31127,7 @@
         <v>0.34150000000000003</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
         <v>507</v>
       </c>
@@ -31130,7 +31138,7 @@
         <v>0.71960000000000002</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
         <v>508</v>
       </c>
@@ -31141,7 +31149,7 @@
         <v>0.26119999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>509</v>
       </c>
@@ -31152,7 +31160,7 @@
         <v>0.44779999999999998</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>510</v>
       </c>
@@ -31163,7 +31171,7 @@
         <v>0.36430000000000001</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>511</v>
       </c>
@@ -31174,7 +31182,7 @@
         <v>0.22009999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>512</v>
       </c>
@@ -31185,7 +31193,7 @@
         <v>0.91490000000000005</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>513</v>
       </c>
@@ -31196,7 +31204,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>514</v>
       </c>
@@ -31207,7 +31215,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>515</v>
       </c>
@@ -31218,7 +31226,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
         <v>516</v>
       </c>
@@ -31229,7 +31237,7 @@
         <v>5.4699999999999999E-2</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
         <v>517</v>
       </c>
@@ -31240,7 +31248,7 @@
         <v>0.69079999999999997</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
         <v>518</v>
       </c>
@@ -31251,7 +31259,7 @@
         <v>1.38E-2</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>519</v>
       </c>
@@ -31262,7 +31270,7 @@
         <v>0.80349999999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
         <v>520</v>
       </c>
@@ -31273,7 +31281,7 @@
         <v>0.1158</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>521</v>
       </c>
@@ -31284,7 +31292,7 @@
         <v>0.46310000000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>522</v>
       </c>
@@ -31295,7 +31303,7 @@
         <v>0.21629999999999999</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>523</v>
       </c>
@@ -31306,7 +31314,7 @@
         <v>0.86839999999999995</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>524</v>
       </c>
@@ -31317,7 +31325,7 @@
         <v>0.87380000000000002</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>525</v>
       </c>
@@ -31328,7 +31336,7 @@
         <v>1.43E-2</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>526</v>
       </c>
@@ -31339,7 +31347,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>527</v>
       </c>
@@ -31350,7 +31358,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>528</v>
       </c>
@@ -31361,7 +31369,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>529</v>
       </c>
@@ -31372,7 +31380,7 @@
         <v>0.87549999999999994</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
         <v>530</v>
       </c>
@@ -31383,7 +31391,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>531</v>
       </c>
@@ -31394,7 +31402,7 @@
         <v>1.61E-2</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>532</v>
       </c>
@@ -31405,7 +31413,7 @@
         <v>0.96350000000000002</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>533</v>
       </c>
@@ -31416,7 +31424,7 @@
         <v>0.80759999999999998</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
         <v>534</v>
       </c>
@@ -31427,7 +31435,7 @@
         <v>0.83709999999999996</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
         <v>535</v>
       </c>
@@ -31438,7 +31446,7 @@
         <v>0.76270000000000004</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>536</v>
       </c>
@@ -31449,7 +31457,7 @@
         <v>3.4599999999999999E-2</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
         <v>537</v>
       </c>
@@ -31460,7 +31468,7 @@
         <v>0.97819999999999996</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>538</v>
       </c>
@@ -31471,7 +31479,7 @@
         <v>0.6472</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>539</v>
       </c>
@@ -31482,7 +31490,7 @@
         <v>5.57E-2</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>540</v>
       </c>
@@ -31493,7 +31501,7 @@
         <v>6.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>541</v>
       </c>
@@ -31504,7 +31512,7 @@
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>542</v>
       </c>
@@ -31515,7 +31523,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>543</v>
       </c>
@@ -31526,7 +31534,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>544</v>
       </c>
@@ -31537,7 +31545,7 @@
         <v>0.38979999999999998</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>545</v>
       </c>
@@ -31548,7 +31556,7 @@
         <v>6.6600000000000006E-2</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>546</v>
       </c>
@@ -31559,7 +31567,7 @@
         <v>0.27510000000000001</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>547</v>
       </c>
@@ -31570,7 +31578,7 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>548</v>
       </c>
@@ -31581,7 +31589,7 @@
         <v>0.12189999999999999</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>549</v>
       </c>
@@ -31592,7 +31600,7 @@
         <v>0.40189999999999998</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>550</v>
       </c>
@@ -31603,7 +31611,7 @@
         <v>0.57010000000000005</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>551</v>
       </c>
@@ -31614,7 +31622,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>552</v>
       </c>
@@ -31625,7 +31633,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>553</v>
       </c>
@@ -31636,7 +31644,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>554</v>
       </c>
@@ -31647,7 +31655,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>555</v>
       </c>
@@ -31658,7 +31666,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>556</v>
       </c>
@@ -31669,7 +31677,7 @@
         <v>0.85040000000000004</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>557</v>
       </c>
@@ -31680,7 +31688,7 @@
         <v>0.95269999999999999</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>558</v>
       </c>
@@ -31691,7 +31699,7 @@
         <v>0.24030000000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>559</v>
       </c>
@@ -31702,7 +31710,7 @@
         <v>0.32829999999999998</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>560</v>
       </c>
@@ -31713,7 +31721,7 @@
         <v>3.5200000000000002E-2</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>561</v>
       </c>
@@ -31724,7 +31732,7 @@
         <v>0.55759999999999998</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>562</v>
       </c>
@@ -31735,7 +31743,7 @@
         <v>0.27579999999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>563</v>
       </c>
@@ -31746,7 +31754,7 @@
         <v>8.3799999999999999E-2</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>564</v>
       </c>
@@ -31757,7 +31765,7 @@
         <v>0.64149999999999996</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>565</v>
       </c>
@@ -31768,7 +31776,7 @@
         <v>0.94230000000000003</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>566</v>
       </c>
@@ -31779,7 +31787,7 @@
         <v>0.62649999999999995</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>567</v>
       </c>
@@ -31790,7 +31798,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>568</v>
       </c>
@@ -31801,7 +31809,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>569</v>
       </c>
@@ -31812,7 +31820,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
         <v>570</v>
       </c>
@@ -31823,7 +31831,7 @@
         <v>0.2409</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>571</v>
       </c>
@@ -31834,7 +31842,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>572</v>
       </c>
@@ -31845,7 +31853,7 @@
         <v>0.40460000000000002</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>573</v>
       </c>
@@ -31856,7 +31864,7 @@
         <v>0.80110000000000003</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>574</v>
       </c>
@@ -31867,7 +31875,7 @@
         <v>0.1108</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>575</v>
       </c>
@@ -31878,7 +31886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>576</v>
       </c>
@@ -31889,7 +31897,7 @@
         <v>0.73550000000000004</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>577</v>
       </c>
@@ -31900,7 +31908,7 @@
         <v>0.5998</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>578</v>
       </c>
@@ -31911,7 +31919,7 @@
         <v>0.45839999999999997</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>579</v>
       </c>
@@ -31922,7 +31930,7 @@
         <v>0.90080000000000005</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>580</v>
       </c>
@@ -31933,7 +31941,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>581</v>
       </c>
@@ -31944,7 +31952,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>582</v>
       </c>
@@ -31955,7 +31963,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>583</v>
       </c>
@@ -31966,7 +31974,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>584</v>
       </c>
@@ -31977,7 +31985,7 @@
         <v>0.39739999999999998</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>585</v>
       </c>
@@ -31988,7 +31996,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>586</v>
       </c>
@@ -31999,7 +32007,7 @@
         <v>0.14760000000000001</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>587</v>
       </c>
@@ -32010,7 +32018,7 @@
         <v>0.61060000000000003</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>588</v>
       </c>
@@ -32021,7 +32029,7 @@
         <v>0.1343</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>589</v>
       </c>
@@ -32032,7 +32040,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>590</v>
       </c>
@@ -32043,7 +32051,7 @@
         <v>0.46139999999999998</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>591</v>
       </c>
@@ -32054,7 +32062,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>592</v>
       </c>
@@ -32065,7 +32073,7 @@
         <v>0.89170000000000005</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>593</v>
       </c>
@@ -32076,7 +32084,7 @@
         <v>0.92459999999999998</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>594</v>
       </c>
@@ -32087,7 +32095,7 @@
         <v>0.50729999999999997</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
         <v>595</v>
       </c>
@@ -32098,7 +32106,7 @@
         <v>0.25890000000000002</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
         <v>596</v>
       </c>
@@ -32109,7 +32117,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>597</v>
       </c>
@@ -32120,7 +32128,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>598</v>
       </c>
@@ -32131,7 +32139,7 @@
         <v>2.93E-2</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>599</v>
       </c>
@@ -32142,7 +32150,7 @@
         <v>0.58189999999999997</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>600</v>
       </c>
@@ -32153,7 +32161,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>601</v>
       </c>
@@ -32164,7 +32172,7 @@
         <v>0.1643</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>602</v>
       </c>
@@ -32175,7 +32183,7 @@
         <v>0.81179999999999997</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>603</v>
       </c>
@@ -32186,7 +32194,7 @@
         <v>0.16089999999999999</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>604</v>
       </c>
@@ -32197,7 +32205,7 @@
         <v>0.97330000000000005</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>605</v>
       </c>
@@ -32208,7 +32216,7 @@
         <v>0.93679999999999997</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>606</v>
       </c>
@@ -32219,7 +32227,7 @@
         <v>0.24840000000000001</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>607</v>
       </c>
@@ -32230,7 +32238,7 @@
         <v>0.97819999999999996</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>608</v>
       </c>
@@ -32241,7 +32249,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>609</v>
       </c>
@@ -32252,7 +32260,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>610</v>
       </c>
@@ -32263,7 +32271,7 @@
         <v>2.3E-3</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>611</v>
       </c>
@@ -32274,7 +32282,7 @@
         <v>0.74909999999999999</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>612</v>
       </c>
@@ -32285,7 +32293,7 @@
         <v>0.34179999999999999</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>613</v>
       </c>
@@ -32296,7 +32304,7 @@
         <v>0.66549999999999998</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>614</v>
       </c>
@@ -32307,7 +32315,7 @@
         <v>0.69740000000000002</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>615</v>
       </c>
@@ -32318,7 +32326,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
         <v>616</v>
       </c>
@@ -32329,7 +32337,7 @@
         <v>0.67559999999999998</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
         <v>617</v>
       </c>
@@ -32340,7 +32348,7 @@
         <v>0.89759999999999995</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>618</v>
       </c>
@@ -32351,7 +32359,7 @@
         <v>0.82969999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>619</v>
       </c>
@@ -32362,7 +32370,7 @@
         <v>0.7641</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>620</v>
       </c>
@@ -32373,7 +32381,7 @@
         <v>0.97970000000000002</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>621</v>
       </c>
@@ -32384,7 +32392,7 @@
         <v>0.98480000000000001</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>622</v>
       </c>
@@ -32395,7 +32403,7 @@
         <v>0.2442</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>623</v>
       </c>
@@ -32406,7 +32414,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>624</v>
       </c>
@@ -32417,7 +32425,7 @@
         <v>6.88E-2</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>625</v>
       </c>
@@ -32428,7 +32436,7 @@
         <v>0.50880000000000003</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>626</v>
       </c>
@@ -32439,7 +32447,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>627</v>
       </c>
@@ -32450,7 +32458,7 @@
         <v>0.3075</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>628</v>
       </c>
@@ -32461,7 +32469,7 @@
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>629</v>
       </c>
@@ -32472,7 +32480,7 @@
         <v>8.9599999999999999E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>630</v>
       </c>
@@ -32483,7 +32491,7 @@
         <v>0.9899</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>631</v>
       </c>
@@ -32494,7 +32502,7 @@
         <v>0.84260000000000002</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>632</v>
       </c>
@@ -32505,7 +32513,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>633</v>
       </c>
@@ -32516,7 +32524,7 @@
         <v>0.83450000000000002</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>634</v>
       </c>
@@ -32527,7 +32535,7 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>635</v>
       </c>
@@ -32538,7 +32546,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>636</v>
       </c>
@@ -32549,7 +32557,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>637</v>
       </c>
@@ -32560,7 +32568,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>638</v>
       </c>
@@ -32571,7 +32579,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>639</v>
       </c>
@@ -32582,7 +32590,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>640</v>
       </c>
@@ -32593,7 +32601,7 @@
         <v>0.17910000000000001</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>641</v>
       </c>
@@ -32604,7 +32612,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>642</v>
       </c>
@@ -32615,7 +32623,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="619" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>643</v>
       </c>
@@ -32626,7 +32634,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="620" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>644</v>
       </c>
@@ -32637,7 +32645,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="621" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>645</v>
       </c>
@@ -32648,7 +32656,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="622" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>646</v>
       </c>
@@ -32659,7 +32667,7 @@
         <v>0.28760000000000002</v>
       </c>
     </row>
-    <row r="623" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>647</v>
       </c>
@@ -32670,7 +32678,7 @@
         <v>0.76839999999999997</v>
       </c>
     </row>
-    <row r="624" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>648</v>
       </c>
@@ -32681,7 +32689,7 @@
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="625" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>649</v>
       </c>
@@ -32692,7 +32700,7 @@
         <v>0.1384</v>
       </c>
     </row>
-    <row r="626" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>650</v>
       </c>
@@ -32703,7 +32711,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="627" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>651</v>
       </c>
@@ -32714,7 +32722,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="628" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>652</v>
       </c>
@@ -32725,7 +32733,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="629" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>653</v>
       </c>
@@ -32736,7 +32744,7 @@
         <v>0.48420000000000002</v>
       </c>
     </row>
-    <row r="630" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>654</v>
       </c>
@@ -32747,7 +32755,7 @@
         <v>0.3165</v>
       </c>
     </row>
-    <row r="631" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>655</v>
       </c>
@@ -32758,7 +32766,7 @@
         <v>0.41349999999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>656</v>
       </c>
@@ -32769,7 +32777,7 @@
         <v>0.70599999999999996</v>
       </c>
     </row>
-    <row r="633" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>657</v>
       </c>
@@ -32780,7 +32788,7 @@
         <v>0.49409999999999998</v>
       </c>
     </row>
-    <row r="634" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>658</v>
       </c>
@@ -32791,7 +32799,7 @@
         <v>0.78280000000000005</v>
       </c>
     </row>
-    <row r="635" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>659</v>
       </c>
@@ -32802,7 +32810,7 @@
         <v>0.21229999999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
         <v>660</v>
       </c>
@@ -32813,7 +32821,7 @@
         <v>7.0099999999999996E-2</v>
       </c>
     </row>
-    <row r="637" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>661</v>
       </c>
@@ -32824,7 +32832,7 @@
         <v>0.90980000000000005</v>
       </c>
     </row>
-    <row r="638" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>662</v>
       </c>
@@ -32835,7 +32843,7 @@
         <v>0.90149999999999997</v>
       </c>
     </row>
-    <row r="639" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>663</v>
       </c>
@@ -32846,7 +32854,7 @@
         <v>7.2599999999999998E-2</v>
       </c>
     </row>
-    <row r="640" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>664</v>
       </c>
@@ -32857,7 +32865,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="641" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>665</v>
       </c>
@@ -32868,7 +32876,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="642" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>666</v>
       </c>
@@ -32879,7 +32887,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="643" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>667</v>
       </c>
@@ -32890,7 +32898,7 @@
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="644" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>668</v>
       </c>
@@ -32901,7 +32909,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="645" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>669</v>
       </c>
@@ -32912,7 +32920,7 @@
         <v>0.2848</v>
       </c>
     </row>
-    <row r="646" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>670</v>
       </c>
@@ -32923,7 +32931,7 @@
         <v>0.45989999999999998</v>
       </c>
     </row>
-    <row r="647" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>671</v>
       </c>
@@ -32934,7 +32942,7 @@
         <v>5.3400000000000003E-2</v>
       </c>
     </row>
-    <row r="648" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>672</v>
       </c>
@@ -32945,7 +32953,7 @@
         <v>0.31469999999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>673</v>
       </c>
@@ -32956,7 +32964,7 @@
         <v>0.64380000000000004</v>
       </c>
     </row>
-    <row r="650" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>674</v>
       </c>
@@ -32967,7 +32975,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="651" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>675</v>
       </c>
@@ -32978,7 +32986,7 @@
         <v>0.83150000000000002</v>
       </c>
     </row>
-    <row r="652" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>676</v>
       </c>
@@ -32989,7 +32997,7 @@
         <v>7.2599999999999998E-2</v>
       </c>
     </row>
-    <row r="653" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>677</v>
       </c>
@@ -33000,7 +33008,7 @@
         <v>0.2387</v>
       </c>
     </row>
-    <row r="654" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>678</v>
       </c>
@@ -33011,7 +33019,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="655" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>679</v>
       </c>
@@ -33022,7 +33030,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="656" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>680</v>
       </c>
@@ -33033,7 +33041,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="657" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>681</v>
       </c>
@@ -33044,7 +33052,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="658" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>682</v>
       </c>
@@ -33055,7 +33063,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="659" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
         <v>683</v>
       </c>
@@ -33066,7 +33074,7 @@
         <v>0.93520000000000003</v>
       </c>
     </row>
-    <row r="660" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
         <v>684</v>
       </c>
@@ -33077,7 +33085,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="661" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
         <v>685</v>
       </c>
@@ -33088,7 +33096,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="662" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
         <v>686</v>
       </c>
@@ -33099,7 +33107,7 @@
         <v>0.95830000000000004</v>
       </c>
     </row>
-    <row r="663" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>687</v>
       </c>
@@ -33110,7 +33118,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="664" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>688</v>
       </c>
@@ -33121,7 +33129,7 @@
         <v>2.8500000000000001E-2</v>
       </c>
     </row>
-    <row r="665" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>689</v>
       </c>
@@ -33132,7 +33140,7 @@
         <v>0.98650000000000004</v>
       </c>
     </row>
-    <row r="666" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
         <v>690</v>
       </c>
@@ -33143,7 +33151,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="667" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>691</v>
       </c>
@@ -33154,7 +33162,7 @@
         <v>0.75880000000000003</v>
       </c>
     </row>
-    <row r="668" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>692</v>
       </c>
@@ -33165,7 +33173,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="669" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>693</v>
       </c>
@@ -33176,7 +33184,7 @@
         <v>0.59509999999999996</v>
       </c>
     </row>
-    <row r="670" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
         <v>694</v>
       </c>
@@ -33187,7 +33195,7 @@
         <v>5.5399999999999998E-2</v>
       </c>
     </row>
-    <row r="671" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>695</v>
       </c>
@@ -33198,7 +33206,7 @@
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="672" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
         <v>696</v>
       </c>
@@ -33209,7 +33217,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="673" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>697</v>
       </c>
@@ -33220,7 +33228,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="674" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>698</v>
       </c>
@@ -33231,7 +33239,7 @@
         <v>0.15909999999999999</v>
       </c>
     </row>
-    <row r="675" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>699</v>
       </c>
@@ -33242,7 +33250,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="676" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>700</v>
       </c>
@@ -33253,7 +33261,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="677" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
         <v>701</v>
       </c>
@@ -33264,7 +33272,7 @@
         <v>0.40489999999999998</v>
       </c>
     </row>
-    <row r="678" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>702</v>
       </c>
@@ -33275,7 +33283,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="679" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>703</v>
       </c>
@@ -33286,7 +33294,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="680" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
         <v>704</v>
       </c>
@@ -33297,7 +33305,7 @@
         <v>0.42609999999999998</v>
       </c>
     </row>
-    <row r="681" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>705</v>
       </c>
@@ -33308,7 +33316,7 @@
         <v>0.70269999999999999</v>
       </c>
     </row>
-    <row r="682" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>706</v>
       </c>
@@ -33319,7 +33327,7 @@
         <v>0.50109999999999999</v>
       </c>
     </row>
-    <row r="683" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>707</v>
       </c>
@@ -33330,7 +33338,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="684" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>708</v>
       </c>
@@ -33341,7 +33349,7 @@
         <v>0.43269999999999997</v>
       </c>
     </row>
-    <row r="685" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>709</v>
       </c>
@@ -33352,7 +33360,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="686" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>710</v>
       </c>
@@ -33363,7 +33371,7 @@
         <v>0.47060000000000002</v>
       </c>
     </row>
-    <row r="687" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>711</v>
       </c>
@@ -33374,7 +33382,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="688" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>712</v>
       </c>
@@ -33385,7 +33393,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="689" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>713</v>
       </c>
@@ -33396,7 +33404,7 @@
         <v>0.7369</v>
       </c>
     </row>
-    <row r="690" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>714</v>
       </c>
@@ -33407,7 +33415,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="691" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>715</v>
       </c>
@@ -33418,7 +33426,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="692" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>716</v>
       </c>
@@ -33429,7 +33437,7 @@
         <v>0.93640000000000001</v>
       </c>
     </row>
-    <row r="693" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>717</v>
       </c>
@@ -33440,7 +33448,7 @@
         <v>2.5899999999999999E-2</v>
       </c>
     </row>
-    <row r="694" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>718</v>
       </c>
@@ -33451,7 +33459,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="695" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>719</v>
       </c>
@@ -33462,7 +33470,7 @@
         <v>0.82579999999999998</v>
       </c>
     </row>
-    <row r="696" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>720</v>
       </c>
@@ -33473,7 +33481,7 @@
         <v>0.78569999999999995</v>
       </c>
     </row>
-    <row r="697" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
         <v>721</v>
       </c>
@@ -33484,7 +33492,7 @@
         <v>0.44169999999999998</v>
       </c>
     </row>
-    <row r="698" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>722</v>
       </c>
@@ -33495,7 +33503,7 @@
         <v>0.73819999999999997</v>
       </c>
     </row>
-    <row r="699" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>723</v>
       </c>
@@ -33506,7 +33514,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="700" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>724</v>
       </c>
@@ -33517,7 +33525,7 @@
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="701" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>725</v>
       </c>
@@ -33528,7 +33536,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="702" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
         <v>726</v>
       </c>
@@ -33539,7 +33547,7 @@
         <v>0.5998</v>
       </c>
     </row>
-    <row r="703" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
         <v>727</v>
       </c>
@@ -33550,7 +33558,7 @@
         <v>0.64870000000000005</v>
       </c>
     </row>
-    <row r="704" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>728</v>
       </c>
@@ -33561,7 +33569,7 @@
         <v>0.21410000000000001</v>
       </c>
     </row>
-    <row r="705" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>729</v>
       </c>
@@ -33572,7 +33580,7 @@
         <v>0.61240000000000006</v>
       </c>
     </row>
-    <row r="706" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>730</v>
       </c>
@@ -33583,7 +33591,7 @@
         <v>0.59370000000000001</v>
       </c>
     </row>
-    <row r="707" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>731</v>
       </c>
@@ -33594,7 +33602,7 @@
         <v>0.36370000000000002</v>
       </c>
     </row>
-    <row r="708" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>732</v>
       </c>
@@ -33605,7 +33613,7 @@
         <v>0.72419999999999995</v>
       </c>
     </row>
-    <row r="709" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>733</v>
       </c>
@@ -33616,7 +33624,7 @@
         <v>0.85970000000000002</v>
       </c>
     </row>
-    <row r="710" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>734</v>
       </c>
@@ -33627,7 +33635,7 @@
         <v>0.2107</v>
       </c>
     </row>
-    <row r="711" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>735</v>
       </c>
@@ -33638,7 +33646,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="712" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>736</v>
       </c>
@@ -33649,7 +33657,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="713" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>737</v>
       </c>
@@ -33660,7 +33668,7 @@
         <v>1.15E-2</v>
       </c>
     </row>
-    <row r="714" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>738</v>
       </c>
@@ -33671,7 +33679,7 @@
         <v>0.49830000000000002</v>
       </c>
     </row>
-    <row r="715" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>739</v>
       </c>
@@ -33682,7 +33690,7 @@
         <v>0.28960000000000002</v>
       </c>
     </row>
-    <row r="716" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>740</v>
       </c>
@@ -33693,7 +33701,7 @@
         <v>0.75060000000000004</v>
       </c>
     </row>
-    <row r="717" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>741</v>
       </c>
@@ -33704,7 +33712,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="718" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>742</v>
       </c>
@@ -33715,7 +33723,7 @@
         <v>9.3100000000000002E-2</v>
       </c>
     </row>
-    <row r="719" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>743</v>
       </c>
@@ -33726,7 +33734,7 @@
         <v>0.90510000000000002</v>
       </c>
     </row>
-    <row r="720" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
         <v>744</v>
       </c>
@@ -33737,7 +33745,7 @@
         <v>0.21590000000000001</v>
       </c>
     </row>
-    <row r="721" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>745</v>
       </c>
@@ -33748,7 +33756,7 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="722" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>746</v>
       </c>
@@ -33759,7 +33767,7 @@
         <v>0.81210000000000004</v>
       </c>
     </row>
-    <row r="723" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>747</v>
       </c>
@@ -33770,7 +33778,7 @@
         <v>0.67490000000000006</v>
       </c>
     </row>
-    <row r="724" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>748</v>
       </c>
@@ -33781,7 +33789,7 @@
         <v>0.22359999999999999</v>
       </c>
     </row>
-    <row r="725" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>749</v>
       </c>
@@ -33792,7 +33800,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="726" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>750</v>
       </c>
@@ -33803,7 +33811,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="727" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>751</v>
       </c>
@@ -33814,7 +33822,7 @@
         <v>1.44E-2</v>
       </c>
     </row>
-    <row r="728" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>752</v>
       </c>
@@ -33825,7 +33833,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="729" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>753</v>
       </c>
@@ -33836,7 +33844,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="730" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>754</v>
       </c>
@@ -33847,7 +33855,7 @@
         <v>0.49540000000000001</v>
       </c>
     </row>
-    <row r="731" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>755</v>
       </c>
@@ -33858,7 +33866,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="732" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>756</v>
       </c>
@@ -33869,7 +33877,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="733" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>757</v>
       </c>
@@ -33880,7 +33888,7 @@
         <v>2.9700000000000001E-2</v>
       </c>
     </row>
-    <row r="734" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>758</v>
       </c>
@@ -33891,7 +33899,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="735" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>759</v>
       </c>
@@ -33902,7 +33910,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="736" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
         <v>760</v>
       </c>
@@ -33913,7 +33921,7 @@
         <v>0.1087</v>
       </c>
     </row>
-    <row r="737" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>761</v>
       </c>
@@ -33924,7 +33932,7 @@
         <v>4.0399999999999998E-2</v>
       </c>
     </row>
-    <row r="738" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>762</v>
       </c>
@@ -33935,7 +33943,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="739" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>763</v>
       </c>
@@ -33946,7 +33954,7 @@
         <v>0.44869999999999999</v>
       </c>
     </row>
-    <row r="740" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>764</v>
       </c>
@@ -33957,7 +33965,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="741" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>765</v>
       </c>
@@ -33968,7 +33976,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="742" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>766</v>
       </c>
@@ -33979,7 +33987,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="743" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>767</v>
       </c>
@@ -33990,7 +33998,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="744" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>768</v>
       </c>
@@ -34001,7 +34009,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="745" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>769</v>
       </c>
@@ -34012,7 +34020,7 @@
         <v>0.16170000000000001</v>
       </c>
     </row>
-    <row r="746" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>770</v>
       </c>
@@ -34023,7 +34031,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="747" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>771</v>
       </c>
@@ -34034,7 +34042,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="748" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>772</v>
       </c>
@@ -34045,7 +34053,7 @@
         <v>2.6599999999999999E-2</v>
       </c>
     </row>
-    <row r="749" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
         <v>773</v>
       </c>
@@ -34056,7 +34064,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="750" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>774</v>
       </c>
@@ -34067,7 +34075,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="751" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>775</v>
       </c>
@@ -34078,7 +34086,7 @@
         <v>0.97819999999999996</v>
       </c>
     </row>
-    <row r="752" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>776</v>
       </c>
@@ -34089,7 +34097,7 @@
         <v>0.62190000000000001</v>
       </c>
     </row>
-    <row r="753" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>777</v>
       </c>
@@ -34100,7 +34108,7 @@
         <v>0.37659999999999999</v>
       </c>
     </row>
-    <row r="754" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>778</v>
       </c>
@@ -34111,7 +34119,7 @@
         <v>0.24640000000000001</v>
       </c>
     </row>
-    <row r="755" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
         <v>779</v>
       </c>
@@ -34122,7 +34130,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="756" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>780</v>
       </c>
@@ -34133,7 +34141,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="757" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>781</v>
       </c>
@@ -34144,7 +34152,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="758" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>782</v>
       </c>
@@ -34155,7 +34163,7 @@
         <v>0.76270000000000004</v>
       </c>
     </row>
-    <row r="759" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>783</v>
       </c>
@@ -34166,7 +34174,7 @@
         <v>6.7699999999999996E-2</v>
       </c>
     </row>
-    <row r="760" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>784</v>
       </c>
@@ -34177,7 +34185,7 @@
         <v>0.38719999999999999</v>
       </c>
     </row>
-    <row r="761" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>785</v>
       </c>
@@ -34188,7 +34196,7 @@
         <v>0.79700000000000004</v>
       </c>
     </row>
-    <row r="762" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>786</v>
       </c>
@@ -34199,7 +34207,7 @@
         <v>3.15E-2</v>
       </c>
     </row>
-    <row r="763" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>787</v>
       </c>
@@ -34210,7 +34218,7 @@
         <v>0.8851</v>
       </c>
     </row>
-    <row r="764" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>788</v>
       </c>
@@ -34221,7 +34229,7 @@
         <v>0.89190000000000003</v>
       </c>
     </row>
-    <row r="765" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>789</v>
       </c>
@@ -34232,7 +34240,7 @@
         <v>0.76670000000000005</v>
       </c>
     </row>
-    <row r="766" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>790</v>
       </c>
@@ -34243,7 +34251,7 @@
         <v>0.97819999999999996</v>
       </c>
     </row>
-    <row r="767" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>791</v>
       </c>
@@ -34254,7 +34262,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="768" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="1" t="s">
         <v>792</v>
       </c>
@@ -34265,7 +34273,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="769" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>793</v>
       </c>
@@ -34276,7 +34284,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="770" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>794</v>
       </c>
@@ -34287,7 +34295,7 @@
         <v>0.629</v>
       </c>
     </row>
-    <row r="771" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>795</v>
       </c>
@@ -34298,7 +34306,7 @@
         <v>4.5900000000000003E-2</v>
       </c>
     </row>
-    <row r="772" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="1" t="s">
         <v>796</v>
       </c>
@@ -34309,7 +34317,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="773" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>797</v>
       </c>
@@ -34320,7 +34328,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="774" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>798</v>
       </c>
@@ -34344,4 +34352,20 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D0A9E2-AA01-4E0D-BDC0-C41A60A36475}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>